--- a/博客-文章/石晓文/目录--石晓文.xlsx
+++ b/博客-文章/石晓文/目录--石晓文.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wmy/workspace/reference/note/博客-文章/石晓文/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\reference\note\博客-文章\石晓文\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3D702A-9313-584C-8B11-E6D80CB4B2E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3341FEDC-2EC6-44E2-8B6F-34CE7A83B5EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11400" yWindow="4280" windowWidth="18940" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="270" yWindow="1275" windowWidth="14910" windowHeight="9840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -260,421 +260,423 @@
     <t>2019.05.30</t>
   </si>
   <si>
+    <t>2019.05.31</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(四十九)-九篇阿里推荐相关论文汇总！</t>
+  </si>
+  <si>
+    <t>2019.06.02</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(五十)-使用强化学习优化用户的长期体验</t>
+  </si>
+  <si>
+    <t>2019.06.08</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(五十一)-谈谈推荐系统中的冷启动</t>
+  </si>
+  <si>
+    <t>2019.06.09</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(五十二)-基于注意力机制的用户行为建模框架ATRank</t>
+  </si>
+  <si>
+    <t>2019.06.23</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(五十三)-DUPN：通过多任务学习用户的通用表示</t>
+  </si>
+  <si>
+    <t>2019.06.30</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(五十四)-使用GAN搭建强化学习仿真环境</t>
+  </si>
+  <si>
+    <t>2019.07.04</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(五十五)-[阿里]考虑时空域影响的点击率预估模型DSTN</t>
+  </si>
+  <si>
+    <t>2019.07.11</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(五十六)-[阿里]融合表示学习的点击率预估模型DeepMCP</t>
+  </si>
+  <si>
+    <t>2019.07.14</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(五十七)-[阿里]如何精确推荐一屏物品？</t>
+  </si>
+  <si>
+    <t>2019.07.21</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(五十八)-基于“翻译”的序列推荐方法</t>
+  </si>
+  <si>
+    <t>2019.07.28</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(五十九)-FM家族的新朋友FAT-DeepFFM</t>
+  </si>
+  <si>
+    <t>2019.08.01</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(六十)-FM家族的新朋友之TransFM</t>
+  </si>
+  <si>
+    <t>2019.08.11</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(六十一)-[阿里]使用Bert来进行序列推荐</t>
+  </si>
+  <si>
+    <t>2019.08.18</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(六十二)-[阿里]电商推荐中的特殊特征蒸馏</t>
+  </si>
+  <si>
+    <t>2019.08.23</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(六十三)-[阿里]大型推荐系统中的深度序列匹配模型SDM</t>
+  </si>
+  <si>
+    <t>2019.09.14</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(六十四)-通过自注意力机制来自动学习特征组合</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(六十五)-负采样点击率修正的那些事</t>
+  </si>
+  <si>
+    <t>2019.09.28</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(六十六)-[阿里]基于多任务学习的CVR预估模型ESM2</t>
+  </si>
+  <si>
+    <t>2019.10.19</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(六十七)-计算广告中的COEC简介</t>
+  </si>
+  <si>
+    <t>2019.10.22</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(六十八)-建模多任务学习中任务相关性的模型MMoE</t>
+  </si>
+  <si>
+    <t>2019.10.27</t>
+  </si>
+  <si>
+    <t>2019.11.03</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(七十)-[阿里]推荐中的个性化重排序</t>
+  </si>
+  <si>
+    <t>2019.11.10</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(七十一)-[华为]一种消除CTR预估中位置偏置的框架</t>
+  </si>
+  <si>
+    <t>2019.12.01</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(七十二)-[谷歌]采样修正的双塔模型</t>
+  </si>
+  <si>
+    <t>2019.12.14</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(七十三)-[微软]通过对抗训练消除位置偏置信息</t>
+  </si>
+  <si>
+    <t>2019.12.21</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(七十四)-[天猫]MIND：多兴趣向量召回</t>
+  </si>
+  <si>
+    <t>2019.12.22</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(七十五)-考虑CPM的评估方法csAUC</t>
+  </si>
+  <si>
+    <t>2020.1.12</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(七十六)-CVR预估中的延迟反馈问题建模</t>
+  </si>
+  <si>
+    <t>2020.2.23</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(七十七)-Field-weighted Factorization Machines(FwFM)</t>
+  </si>
+  <si>
+    <t>2020.2.29</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(七十八)-CFM:结合3D卷积的FM模型</t>
+  </si>
+  <si>
+    <t>2020.3.07</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(七十九)-序列推荐中使用长尾商品提升推荐多样性</t>
+  </si>
+  <si>
+    <t>2020.3.13</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(八十)-在评分预测中建模“同化-对比”效应</t>
+  </si>
+  <si>
+    <t>2020.3.15</t>
+  </si>
+  <si>
+    <t>2020.3.28</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(八十二)-[阿里]可视化分析点击率预估模型</t>
+  </si>
+  <si>
+    <t>2020.3.29</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(八十三)-[阿里]记忆增强网络—MA-DNN模型介绍</t>
+  </si>
+  <si>
+    <t>2020.5.23</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(八十四)-[阿里]抽取用户多维度兴趣的DHAN网络介绍</t>
+  </si>
+  <si>
+    <t>2020.6.06</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(八十五)-[阿里]长用户行为序列建模探索:MIMN</t>
+  </si>
+  <si>
+    <t>2020.6.14</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(八十六)-[腾讯&amp;微博]GateNet:使用门机制提升点击率预估效果</t>
+  </si>
+  <si>
+    <t>2020.7.11</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(八十七)-[阿里]基于搜索的用户终身行为序列建模</t>
+  </si>
+  <si>
+    <t>2020.7.19</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(九)--评价指标AUC原理及实践</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(十一)--神经协同过滤NCF原理及实战</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>没细看</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(十二)--推荐系统中的EE问题及基本Bandit算法</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(十三)--linUCB方法浅析及实现</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(十七)--探秘阿里之MLR算法浅析及实现</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(二十)--贝叶斯个性化排序(BPR)算法原理及实战</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>看了下没有代码实现</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>不想看</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(二十五)--当知识图谱遇上个性化推荐</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(二十一)--阶段性回顾</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(二十二)--DeepFM升级版XDeepFM模型强势来袭！</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(二十四)--深度兴趣进化网络DIEN原理及实战！</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>未看代码可以看</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(二十七)--知识图谱与推荐系统结合之RippleNet模型原理及实现</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(二十九)--协同记忆网络理论及实践</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(三十一)--使用自注意力机制进行物品推荐</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(三十三)--Neural Attentive Item Similarity Model</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(三十四)--YouTube深度学习推荐系统</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deep Reinforcement Learning for List-wise Recommendations</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recommendations with Negative Feedback via Pairwise Deep Reinforcement Learning</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(九十六)-[第四范式]考虑域内信息和多模块非线性融合的NON模型</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(九十五)-[雅虎]点击率预估中的软频率控制</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(九十四)-[华为]一种实用的增量式深度CTR模型训练方法</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(九十三)-[谷歌]提升谷歌网盘推荐质量的工业经验</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(九十一)-[阿里]跨域点击率预估混合兴趣模型MiNet</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(九十)-[阿里]计算成本感知的轻量级预排序系统COLD</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(八十九)-推荐系统中的反馈循环</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(八十八)-[微信]充分利用显式&amp;隐式反馈的深度反馈网络</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(九十二)-[腾讯]RecSys2020最佳长论文-多任务学习模型PLE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(三十七)--基于多任务学习的可解释性推荐系统</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>没看需要强化学习</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(三十九)-推荐系统中召回策略演进！</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(三十八)--CFGAN:一种基于GAN的协同过滤推荐框架</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>没看需要对抗网络</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deep Neural Networks for YouTube Recommendations</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(四十)-SESSION-BASED RECOMMENDATIONS WITH RECURRENT NEURAL NETWORKS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(四十一)-Improved Recurrent Neural Networks for Session-based Recommendations</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文没读懂--树如何构建，网络模型如何和树在模型中融合，基于类目的初始化，训练好的模型效果表现</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>没看</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(四十二)-使用图神经网络做基于会话的推荐</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(八十一)-[阿里]DMR：Matching和Ranking相结合的点击率预估模型</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>没看，基于序列的推荐</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(四十三)-考虑用户微观行为的电商推荐</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(四十四)-Airbnb实时搜索排序中的Embedding技巧</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(三十六)--Learning and Transferring IDs Representation in E-commerce</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(四十五)-探秘阿里之深度会话兴趣网络DSIN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>推荐系统遇上深度学习(四十八)-BST:将Transformer用于淘宝电商推荐</t>
-  </si>
-  <si>
-    <t>2019.05.31</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(四十九)-九篇阿里推荐相关论文汇总！</t>
-  </si>
-  <si>
-    <t>2019.06.02</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(五十)-使用强化学习优化用户的长期体验</t>
-  </si>
-  <si>
-    <t>2019.06.08</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(五十一)-谈谈推荐系统中的冷启动</t>
-  </si>
-  <si>
-    <t>2019.06.09</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(五十二)-基于注意力机制的用户行为建模框架ATRank</t>
-  </si>
-  <si>
-    <t>2019.06.23</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(五十三)-DUPN：通过多任务学习用户的通用表示</t>
-  </si>
-  <si>
-    <t>2019.06.30</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(五十四)-使用GAN搭建强化学习仿真环境</t>
-  </si>
-  <si>
-    <t>2019.07.04</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(五十五)-[阿里]考虑时空域影响的点击率预估模型DSTN</t>
-  </si>
-  <si>
-    <t>2019.07.11</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(五十六)-[阿里]融合表示学习的点击率预估模型DeepMCP</t>
-  </si>
-  <si>
-    <t>2019.07.14</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(五十七)-[阿里]如何精确推荐一屏物品？</t>
-  </si>
-  <si>
-    <t>2019.07.21</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(五十八)-基于“翻译”的序列推荐方法</t>
-  </si>
-  <si>
-    <t>2019.07.28</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(五十九)-FM家族的新朋友FAT-DeepFFM</t>
-  </si>
-  <si>
-    <t>2019.08.01</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(六十)-FM家族的新朋友之TransFM</t>
-  </si>
-  <si>
-    <t>2019.08.11</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(六十一)-[阿里]使用Bert来进行序列推荐</t>
-  </si>
-  <si>
-    <t>2019.08.18</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(六十二)-[阿里]电商推荐中的特殊特征蒸馏</t>
-  </si>
-  <si>
-    <t>2019.08.23</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(六十三)-[阿里]大型推荐系统中的深度序列匹配模型SDM</t>
-  </si>
-  <si>
-    <t>2019.09.14</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(六十四)-通过自注意力机制来自动学习特征组合</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(六十五)-负采样点击率修正的那些事</t>
-  </si>
-  <si>
-    <t>2019.09.28</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(六十六)-[阿里]基于多任务学习的CVR预估模型ESM2</t>
-  </si>
-  <si>
-    <t>2019.10.19</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(六十七)-计算广告中的COEC简介</t>
-  </si>
-  <si>
-    <t>2019.10.22</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(六十八)-建模多任务学习中任务相关性的模型MMoE</t>
-  </si>
-  <si>
-    <t>2019.10.27</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>推荐系统遇上深度学习(六十九)-youtube视频推荐中的多任务排序系统</t>
-  </si>
-  <si>
-    <t>2019.11.03</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(七十)-[阿里]推荐中的个性化重排序</t>
-  </si>
-  <si>
-    <t>2019.11.10</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(七十一)-[华为]一种消除CTR预估中位置偏置的框架</t>
-  </si>
-  <si>
-    <t>2019.12.01</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(七十二)-[谷歌]采样修正的双塔模型</t>
-  </si>
-  <si>
-    <t>2019.12.14</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(七十三)-[微软]通过对抗训练消除位置偏置信息</t>
-  </si>
-  <si>
-    <t>2019.12.21</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(七十四)-[天猫]MIND：多兴趣向量召回</t>
-  </si>
-  <si>
-    <t>2019.12.22</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(七十五)-考虑CPM的评估方法csAUC</t>
-  </si>
-  <si>
-    <t>2020.1.12</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(七十六)-CVR预估中的延迟反馈问题建模</t>
-  </si>
-  <si>
-    <t>2020.2.23</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(七十七)-Field-weighted Factorization Machines(FwFM)</t>
-  </si>
-  <si>
-    <t>2020.2.29</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(七十八)-CFM:结合3D卷积的FM模型</t>
-  </si>
-  <si>
-    <t>2020.3.07</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(七十九)-序列推荐中使用长尾商品提升推荐多样性</t>
-  </si>
-  <si>
-    <t>2020.3.13</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(八十)-在评分预测中建模“同化-对比”效应</t>
-  </si>
-  <si>
-    <t>2020.3.15</t>
-  </si>
-  <si>
-    <t>2020.3.28</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(八十二)-[阿里]可视化分析点击率预估模型</t>
-  </si>
-  <si>
-    <t>2020.3.29</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(八十三)-[阿里]记忆增强网络—MA-DNN模型介绍</t>
-  </si>
-  <si>
-    <t>2020.5.23</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(八十四)-[阿里]抽取用户多维度兴趣的DHAN网络介绍</t>
-  </si>
-  <si>
-    <t>2020.6.06</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(八十五)-[阿里]长用户行为序列建模探索:MIMN</t>
-  </si>
-  <si>
-    <t>2020.6.14</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(八十六)-[腾讯&amp;微博]GateNet:使用门机制提升点击率预估效果</t>
-  </si>
-  <si>
-    <t>2020.7.11</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(八十七)-[阿里]基于搜索的用户终身行为序列建模</t>
-  </si>
-  <si>
-    <t>2020.7.19</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(九)--评价指标AUC原理及实践</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(十一)--神经协同过滤NCF原理及实战</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>没细看</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(十二)--推荐系统中的EE问题及基本Bandit算法</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(十三)--linUCB方法浅析及实现</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(十七)--探秘阿里之MLR算法浅析及实现</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(二十)--贝叶斯个性化排序(BPR)算法原理及实战</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>看了下没有代码实现</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>不想看</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(二十五)--当知识图谱遇上个性化推荐</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(二十一)--阶段性回顾</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(二十二)--DeepFM升级版XDeepFM模型强势来袭！</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(二十四)--深度兴趣进化网络DIEN原理及实战！</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>未看代码可以看</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(二十七)--知识图谱与推荐系统结合之RippleNet模型原理及实现</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(二十九)--协同记忆网络理论及实践</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(三十一)--使用自注意力机制进行物品推荐</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(三十三)--Neural Attentive Item Similarity Model</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(三十四)--YouTube深度学习推荐系统</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deep Reinforcement Learning for List-wise Recommendations</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Recommendations with Negative Feedback via Pairwise Deep Reinforcement Learning</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(九十六)-[第四范式]考虑域内信息和多模块非线性融合的NON模型</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(九十五)-[雅虎]点击率预估中的软频率控制</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(九十四)-[华为]一种实用的增量式深度CTR模型训练方法</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(九十三)-[谷歌]提升谷歌网盘推荐质量的工业经验</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(九十一)-[阿里]跨域点击率预估混合兴趣模型MiNet</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(九十)-[阿里]计算成本感知的轻量级预排序系统COLD</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(八十九)-推荐系统中的反馈循环</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(八十八)-[微信]充分利用显式&amp;隐式反馈的深度反馈网络</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(九十二)-[腾讯]RecSys2020最佳长论文-多任务学习模型PLE</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(三十七)--基于多任务学习的可解释性推荐系统</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>没看需要强化学习</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(三十九)-推荐系统中召回策略演进！</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(三十八)--CFGAN:一种基于GAN的协同过滤推荐框架</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>没看需要对抗网络</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deep Neural Networks for YouTube Recommendations</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(四十)-SESSION-BASED RECOMMENDATIONS WITH RECURRENT NEURAL NETWORKS</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(四十一)-Improved Recurrent Neural Networks for Session-based Recommendations</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>论文没读懂--树如何构建，网络模型如何和树在模型中融合，基于类目的初始化，训练好的模型效果表现</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>没看</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(四十二)-使用图神经网络做基于会话的推荐</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(八十一)-[阿里]DMR：Matching和Ranking相结合的点击率预估模型</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>没看，基于序列的推荐</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(四十三)-考虑用户微观行为的电商推荐</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(四十四)-Airbnb实时搜索排序中的Embedding技巧</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(三十六)--Learning and Transferring IDs Representation in E-commerce</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(四十五)-探秘阿里之深度会话兴趣网络DSIN</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -682,7 +684,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1675,24 +1677,24 @@
   <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A47" sqref="A47"/>
+      <selection pane="bottomRight" activeCell="A69" sqref="A69:A97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="85" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -1713,7 +1715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1736,7 +1738,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -1759,7 +1761,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -1782,7 +1784,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1805,7 +1807,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -1828,7 +1830,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
@@ -1851,7 +1853,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>19</v>
       </c>
@@ -1874,7 +1876,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>21</v>
       </c>
@@ -1897,9 +1899,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
@@ -1920,7 +1922,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
@@ -1944,12 +1946,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>25</v>
@@ -1970,9 +1972,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
@@ -1994,12 +1996,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>27</v>
@@ -2020,12 +2022,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>29</v>
@@ -2046,12 +2048,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>31</v>
@@ -2072,15 +2074,15 @@
         <v>18</v>
       </c>
       <c r="I16" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>33</v>
@@ -2101,12 +2103,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>34</v>
@@ -2127,7 +2129,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>35</v>
       </c>
@@ -2151,7 +2153,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>37</v>
       </c>
@@ -2175,12 +2177,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C21" t="s">
         <v>39</v>
@@ -2201,9 +2203,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C22" t="s">
         <v>40</v>
@@ -2224,12 +2226,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="C23" t="s">
         <v>41</v>
@@ -2250,12 +2252,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C24" t="s">
         <v>43</v>
@@ -2276,12 +2278,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C25" t="s">
         <v>44</v>
@@ -2302,12 +2304,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B26" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C26" t="s">
         <v>45</v>
@@ -2316,12 +2318,12 @@
         <v>0.53125</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C27" t="s">
         <v>47</v>
@@ -2342,9 +2344,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C28" t="s">
         <v>48</v>
@@ -2365,12 +2367,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C29" t="s">
         <v>50</v>
@@ -2391,12 +2393,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B30" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C30" t="s">
         <v>51</v>
@@ -2417,12 +2419,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>53</v>
@@ -2443,12 +2445,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>54</v>
@@ -2469,12 +2471,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>56</v>
@@ -2495,12 +2497,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>57</v>
@@ -2521,9 +2523,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="2" t="s">
@@ -2545,15 +2547,15 @@
         <v>53</v>
       </c>
       <c r="I35" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>60</v>
@@ -2574,12 +2576,12 @@
         <v>22</v>
       </c>
       <c r="I36" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
@@ -2601,12 +2603,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>62</v>
@@ -2627,12 +2629,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>63</v>
@@ -2653,12 +2655,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>64</v>
@@ -2679,12 +2681,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B41" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C41" t="s">
         <v>65</v>
@@ -2705,12 +2707,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B42" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C42" t="s">
         <v>66</v>
@@ -2731,12 +2733,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B43" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C43" t="s">
         <v>67</v>
@@ -2757,12 +2759,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B44" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C44" t="s">
         <v>68</v>
@@ -2783,9 +2785,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C45" t="s">
         <v>69</v>
@@ -2806,9 +2808,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C46" t="s">
         <v>70</v>
@@ -2829,7 +2831,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>71</v>
       </c>
@@ -2852,7 +2854,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>73</v>
       </c>
@@ -2875,12 +2877,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>199</v>
+      </c>
+      <c r="C49" t="s">
         <v>75</v>
-      </c>
-      <c r="C49" t="s">
-        <v>76</v>
       </c>
       <c r="D49" s="1">
         <v>9.0277777777777787E-3</v>
@@ -2898,12 +2900,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" t="s">
         <v>77</v>
-      </c>
-      <c r="C50" t="s">
-        <v>78</v>
       </c>
       <c r="D50" s="1">
         <v>0.68125000000000002</v>
@@ -2921,13 +2923,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D51" s="4">
         <v>0.75138888888888899</v>
@@ -2945,13 +2947,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D52" s="4">
         <v>0.44791666666666669</v>
@@ -2969,13 +2971,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D53" s="4">
         <v>0.91041666666666676</v>
@@ -2993,13 +2995,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D54" s="4">
         <v>0.72638888888888886</v>
@@ -3017,13 +3019,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D55" s="4">
         <v>0.97569444444444453</v>
@@ -3041,13 +3043,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D56" s="4">
         <v>0.97152777777777777</v>
@@ -3065,13 +3067,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="4">
         <v>0.90277777777777779</v>
@@ -3089,13 +3091,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D58" s="4">
         <v>0.94513888888888886</v>
@@ -3113,13 +3115,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D59" s="4">
         <v>0.7090277777777777</v>
@@ -3137,13 +3139,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D60" s="4">
         <v>0.93055555555555547</v>
@@ -3161,12 +3163,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>98</v>
+      </c>
+      <c r="C61" t="s">
         <v>99</v>
-      </c>
-      <c r="C61" t="s">
-        <v>100</v>
       </c>
       <c r="D61" s="1">
         <v>0.69305555555555554</v>
@@ -3184,12 +3186,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>100</v>
+      </c>
+      <c r="C62" t="s">
         <v>101</v>
-      </c>
-      <c r="C62" t="s">
-        <v>102</v>
       </c>
       <c r="D62" s="1">
         <v>0.43472222222222223</v>
@@ -3207,12 +3209,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>102</v>
+      </c>
+      <c r="C63" t="s">
         <v>103</v>
-      </c>
-      <c r="C63" t="s">
-        <v>104</v>
       </c>
       <c r="D63" s="1">
         <v>0.63194444444444442</v>
@@ -3230,12 +3232,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>104</v>
+      </c>
+      <c r="C64" t="s">
         <v>105</v>
-      </c>
-      <c r="C64" t="s">
-        <v>106</v>
       </c>
       <c r="D64" s="1">
         <v>0.55972222222222223</v>
@@ -3253,12 +3255,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C65" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D65" s="1">
         <v>0.71666666666666667</v>
@@ -3276,12 +3278,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>107</v>
+      </c>
+      <c r="C66" t="s">
         <v>108</v>
-      </c>
-      <c r="C66" t="s">
-        <v>109</v>
       </c>
       <c r="D66" s="1">
         <v>0.73333333333333339</v>
@@ -3299,12 +3301,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>109</v>
+      </c>
+      <c r="C67" t="s">
         <v>110</v>
-      </c>
-      <c r="C67" t="s">
-        <v>111</v>
       </c>
       <c r="D67" s="1">
         <v>0.53611111111111109</v>
@@ -3322,12 +3324,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>111</v>
+      </c>
+      <c r="C68" t="s">
         <v>112</v>
-      </c>
-      <c r="C68" t="s">
-        <v>113</v>
       </c>
       <c r="D68" s="1">
         <v>0.99513888888888891</v>
@@ -3345,12 +3347,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>113</v>
+      </c>
+      <c r="C69" t="s">
         <v>114</v>
-      </c>
-      <c r="C69" t="s">
-        <v>115</v>
       </c>
       <c r="D69" s="1">
         <v>0.79861111111111116</v>
@@ -3368,12 +3370,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>116</v>
+        <v>200</v>
       </c>
       <c r="C70" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D70" s="1">
         <v>0.97986111111111107</v>
@@ -3391,13 +3393,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D71" s="4">
         <v>0.4284722222222222</v>
@@ -3415,13 +3417,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D72" s="4">
         <v>0.50138888888888888</v>
@@ -3439,13 +3441,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D73" s="4">
         <v>0.9159722222222223</v>
@@ -3463,13 +3465,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D74" s="4">
         <v>0.70277777777777783</v>
@@ -3487,13 +3489,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D75" s="4">
         <v>0.76250000000000007</v>
@@ -3511,13 +3513,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D76" s="4">
         <v>0.69930555555555562</v>
@@ -3535,13 +3537,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D77" s="4">
         <v>0.77916666666666667</v>
@@ -3559,13 +3561,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D78" s="4">
         <v>0.85138888888888886</v>
@@ -3583,13 +3585,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D79" s="4">
         <v>0.67847222222222225</v>
@@ -3607,13 +3609,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D80" s="4">
         <v>0.95416666666666661</v>
@@ -3631,12 +3633,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C81" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D81" s="1">
         <v>0.88888888888888884</v>
@@ -3654,12 +3656,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C82" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D82" s="1">
         <v>0.78680555555555554</v>
@@ -3677,12 +3679,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C83" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D83" s="1">
         <v>0.6118055555555556</v>
@@ -3700,12 +3702,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C84" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D84" s="1">
         <v>0.62222222222222223</v>
@@ -3723,12 +3725,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C85" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D85" s="1">
         <v>0.84097222222222223</v>
@@ -3746,12 +3748,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C86" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D86" s="1">
         <v>0.8833333333333333</v>
@@ -3769,12 +3771,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C87" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D87" s="1">
         <v>0.70347222222222217</v>
@@ -3792,12 +3794,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C88" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D88" s="1">
         <v>0.90069444444444446</v>
@@ -3815,9 +3817,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C89">
         <v>8.01</v>
@@ -3838,9 +3840,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C90">
         <v>8.02</v>
@@ -3861,9 +3863,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2">
@@ -3885,9 +3887,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2">
@@ -3909,9 +3911,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2">
@@ -3933,9 +3935,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2">
@@ -3957,9 +3959,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2">
@@ -3981,9 +3983,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2">
@@ -4005,9 +4007,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2">

--- a/博客-文章/石晓文/目录--石晓文.xlsx
+++ b/博客-文章/石晓文/目录--石晓文.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\reference\note\博客-文章\石晓文\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3341FEDC-2EC6-44E2-8B6F-34CE7A83B5EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF7CB11-9AC2-44A7-923B-46565ECE130C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="1275" windowWidth="14910" windowHeight="9840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7290" yWindow="1080" windowWidth="13200" windowHeight="9840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -684,7 +684,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -856,6 +856,14 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="8"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1291,7 +1299,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1317,6 +1325,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1677,10 +1691,10 @@
   <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A69" sqref="A69:A97"/>
+      <selection pane="bottomRight" activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3348,7 +3362,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" s="3" t="s">
         <v>113</v>
       </c>
       <c r="C69" t="s">
@@ -3371,7 +3385,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="A70" s="9" t="s">
         <v>200</v>
       </c>
       <c r="C70" t="s">
@@ -3442,7 +3456,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="10" t="s">
         <v>120</v>
       </c>
       <c r="B73" s="2"/>
@@ -3912,7 +3926,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
+      <c r="A93" s="10" t="s">
         <v>181</v>
       </c>
       <c r="B93" s="2"/>

--- a/博客-文章/石晓文/目录--石晓文.xlsx
+++ b/博客-文章/石晓文/目录--石晓文.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\reference\note\博客-文章\石晓文\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF7CB11-9AC2-44A7-923B-46565ECE130C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD322AA6-50F7-43AE-8738-B44E4A566A1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7290" yWindow="1080" windowWidth="13200" windowHeight="9840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1299,7 +1299,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1325,9 +1325,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1691,10 +1688,10 @@
   <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A70" sqref="A70"/>
+      <selection pane="bottomRight" activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3385,7 +3382,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="s">
+      <c r="A70" s="3" t="s">
         <v>200</v>
       </c>
       <c r="C70" t="s">
@@ -3456,7 +3453,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B73" s="2"/>
@@ -3926,7 +3923,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="10" t="s">
+      <c r="A93" s="9" t="s">
         <v>181</v>
       </c>
       <c r="B93" s="2"/>

--- a/博客-文章/石晓文/目录--石晓文.xlsx
+++ b/博客-文章/石晓文/目录--石晓文.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\reference\note\博客-文章\石晓文\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD322AA6-50F7-43AE-8738-B44E4A566A1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF62AF6-686E-449C-8E4A-CE652F56FE99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7290" yWindow="1080" windowWidth="13200" windowHeight="9840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -861,7 +861,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="8"/>
+      <color theme="4"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -1327,7 +1327,7 @@
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1688,10 +1688,10 @@
   <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A93" sqref="A93"/>
+      <selection pane="bottomRight" activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3760,7 +3760,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="A86" s="9" t="s">
         <v>145</v>
       </c>
       <c r="C86" t="s">
@@ -3923,7 +3923,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="9" t="s">
+      <c r="A93" s="5" t="s">
         <v>181</v>
       </c>
       <c r="B93" s="2"/>
